--- a/User_Data.xlsx
+++ b/User_Data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -524,6 +524,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11111111111111</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sampritisaha@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$2b$12$eQ8kHZISP4o6ZcD8TqqGHel2Nx1cGYzCD7MpHyg89knD36Vdt/ESe</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9809809809</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>xyz</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
